--- a/group_5_project/excel_files/simulated_annealing_w_selected_ngh.xlsx
+++ b/group_5_project/excel_files/simulated_annealing_w_selected_ngh.xlsx
@@ -405,10 +405,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10.13559471767015</v>
+        <v>9.713925848680759</v>
       </c>
       <c r="D2">
-        <v>38.31148826399999</v>
+        <v>36.83376492400004</v>
       </c>
     </row>
   </sheetData>
